--- a/Module4/TimesheetCS5010.xlsx
+++ b/Module4/TimesheetCS5010.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
   <si>
     <t>Date</t>
   </si>
@@ -92,6 +92,24 @@
   </si>
   <si>
     <t xml:space="preserve"> =========================committing to git: 2/3 17:14 =========================</t>
+  </si>
+  <si>
+    <t>Started bouncing balls</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> =========================committing to git: 2/5 11:54 =========================</t>
+  </si>
+  <si>
+    <t>Rendering list of balls in world</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> =========================committing to git: 2/6 18:40 =========================</t>
+  </si>
+  <si>
+    <t>Added mouse events (but no tests yet)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> =========================committing to git: 2/7 14:56 =========================</t>
   </si>
 </sst>
 </file>
@@ -941,10 +959,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K53"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1050,18 +1068,38 @@
       <c r="K5" s="7"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="7"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="7"/>
+      <c r="A6" s="2">
+        <v>41675</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.49374999999999997</v>
+      </c>
+      <c r="E6" s="7">
+        <v>1</v>
+      </c>
       <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
+      <c r="G6" s="7">
+        <v>2</v>
+      </c>
       <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
+      <c r="I6" s="7">
+        <v>105</v>
+      </c>
       <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
+      <c r="K6" s="7" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -1073,262 +1111,174 @@
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="7"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
+    <row r="8" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>41676</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.77708333333333324</v>
+      </c>
+      <c r="E8" s="8">
+        <v>1</v>
+      </c>
+      <c r="G8" s="8">
+        <v>2</v>
+      </c>
+      <c r="I8" s="8">
+        <v>60</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="10" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+      <c r="A10" s="2">
+        <v>41677</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.56944444444444442</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.62083333333333335</v>
+      </c>
+      <c r="E10" s="8">
+        <v>0</v>
+      </c>
+      <c r="G10" s="8">
+        <v>2</v>
+      </c>
+      <c r="I10" s="8">
+        <f>20+54</f>
+        <v>74</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="11" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-    </row>
-    <row r="12" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-    </row>
-    <row r="14" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-    </row>
-    <row r="16" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-    </row>
-    <row r="18" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-    </row>
-    <row r="20" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-    </row>
-    <row r="22" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-    </row>
-    <row r="23" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-    </row>
-    <row r="24" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-    </row>
-    <row r="25" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-    </row>
-    <row r="26" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-    </row>
-    <row r="27" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-    </row>
-    <row r="28" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-    </row>
-    <row r="29" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-    </row>
-    <row r="30" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
-    </row>
-    <row r="31" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-    </row>
-    <row r="32" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-    </row>
-    <row r="33" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="2"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-    </row>
-    <row r="34" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="2"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-    </row>
-    <row r="35" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-    </row>
-    <row r="36" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B37" s="5"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
-      <c r="K37" s="5"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
+      <c r="A11" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A39" s="2" t="s">
+    <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G39" s="4">
-        <f>SUMIF(G3:G38,"1",I3:I38)</f>
+      <c r="G13" s="4">
+        <f>SUMIF(G3:G12,"1",I3:I12)</f>
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A40" s="2" t="s">
+    <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G40" s="4">
-        <f>SUMIF(G3:G38,"2",I3:I38)</f>
+      <c r="G14" s="4">
+        <f>SUMIF(G3:G12,"2",I3:I12)</f>
+        <v>239</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="4">
+        <f>SUMIF(G3:G12,"3",I3:I12)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A41" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G41" s="4">
-        <f>SUMIF(G3:G38,"3",I3:I38)</f>
+    <row r="16" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="4">
+        <f>SUMIF(G3:G12,"4",I3:I12)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A42" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G42" s="4">
-        <f>SUMIF(G3:G38,"4",I3:I38)</f>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="3">
+        <f>G13/60</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="3">
+        <f>G14/60</f>
+        <v>3.9833333333333334</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" s="3">
+        <f>G15/60</f>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G44" s="3">
-        <f>G39/60</f>
-        <v>0.33333333333333331</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G45" s="3">
-        <f>G40/60</f>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" s="3">
+        <f>G16/60</f>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G46" s="3">
-        <f>G41/60</f>
+    <row r="26" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G47" s="3">
-        <f>G42/60</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B52" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E52" s="8">
-        <v>0</v>
-      </c>
-      <c r="G52" s="8" t="s">
+      <c r="G26" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I52" s="8" t="s">
+      <c r="I26" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="K52" s="8" t="s">
+      <c r="K26" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="53" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
+    <row r="27" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
         <v>24</v>
       </c>
     </row>

--- a/Module4/TimesheetCS5010.xlsx
+++ b/Module4/TimesheetCS5010.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="37">
   <si>
     <t>Date</t>
   </si>
@@ -43,9 +43,6 @@
     <t>Doyle</t>
   </si>
   <si>
-    <t xml:space="preserve">    </t>
-  </si>
-  <si>
     <t>Total Time On Task Q1 (minutes)</t>
   </si>
   <si>
@@ -110,6 +107,24 @@
   </si>
   <si>
     <t xml:space="preserve"> =========================committing to git: 2/7 14:56 =========================</t>
+  </si>
+  <si>
+    <t>Added tests for mouse events</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> =========================committing to git: 2/8 9:21 =========================</t>
+  </si>
+  <si>
+    <t>More tests for mouse and key events</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> =========================committing to git: 2/8 11:14 =========================</t>
+  </si>
+  <si>
+    <t>Got drag working better</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> =========================committing to git: 2/8 13:15 =========================</t>
   </si>
 </sst>
 </file>
@@ -959,10 +974,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1049,12 +1064,12 @@
       </c>
       <c r="J4" s="7"/>
       <c r="K4" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -1093,12 +1108,12 @@
       </c>
       <c r="J6" s="7"/>
       <c r="K6" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
@@ -1134,12 +1149,12 @@
         <v>60</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -1166,120 +1181,222 @@
         <v>74</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>41678</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="E12" s="8">
+        <v>0</v>
+      </c>
+      <c r="G12" s="8">
+        <v>2</v>
+      </c>
+      <c r="I12" s="8">
+        <f>60</f>
+        <v>60</v>
+      </c>
+      <c r="K12" s="8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+    <row r="13" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>41678</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.40625</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.46666666666666662</v>
+      </c>
+      <c r="E14" s="8">
+        <v>1</v>
+      </c>
+      <c r="G14" s="8">
+        <v>2</v>
+      </c>
+      <c r="I14" s="8">
+        <f>60+12</f>
+        <v>72</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>41678</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.48819444444444443</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.54375000000000007</v>
+      </c>
+      <c r="E16" s="8">
+        <v>1</v>
+      </c>
+      <c r="G16" s="8">
+        <v>2</v>
+      </c>
+      <c r="I16" s="8">
+        <f>60+10</f>
+        <v>70</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+    </row>
+    <row r="20" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+    </row>
+    <row r="21" spans="1:7" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
+      <c r="G21" s="4">
+        <f>SUMIF(G2:G20,"1",I2:I20)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G13" s="4">
-        <f>SUMIF(G3:G12,"1",I3:I12)</f>
+      <c r="G22" s="4">
+        <f>SUMIF(G3:G20,"2",I3:I20)</f>
+        <v>441</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="4">
+        <f>SUMIF(G3:G20,"3",I3:I20)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="4">
+        <f>SUMIF(G3:G20,"4",I3:I20)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" s="3">
+        <f>G13/60</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" s="3">
+        <f>G22/60</f>
+        <v>7.35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" s="3">
+        <f>G23/60</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G29" s="3">
+        <f>G24/60</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" s="4">
-        <f>SUMIF(G3:G12,"2",I3:I12)</f>
-        <v>239</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" s="4">
-        <f>SUMIF(G3:G12,"3",I3:I12)</f>
+      <c r="D34" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E34" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" s="4">
-        <f>SUMIF(G3:G12,"4",I3:I12)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" s="3">
-        <f>G13/60</f>
-        <v>0.33333333333333331</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G19" s="3">
-        <f>G14/60</f>
-        <v>3.9833333333333334</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20" s="3">
-        <f>G15/60</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G21" s="3">
-        <f>G16/60</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" s="1" t="s">
+      <c r="G34" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E26" s="8">
-        <v>0</v>
-      </c>
-      <c r="G26" s="8" t="s">
+      <c r="I34" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I26" s="8" t="s">
+      <c r="K34" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="K26" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Module4/TimesheetCS5010.xlsx
+++ b/Module4/TimesheetCS5010.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="39">
   <si>
     <t>Date</t>
   </si>
@@ -125,6 +125,12 @@
   </si>
   <si>
     <t xml:space="preserve"> =========================committing to git: 2/8 13:15 =========================</t>
+  </si>
+  <si>
+    <t>Got in-ball working for circle</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> =========================committing to git: 2/8 15:33 =========================</t>
   </si>
 </sst>
 </file>
@@ -974,10 +980,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K35"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1280,122 +1286,153 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-    </row>
-    <row r="20" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>41678</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="E18" s="8">
+        <v>0</v>
+      </c>
+      <c r="G18" s="8">
+        <v>2</v>
+      </c>
+      <c r="I18" s="8">
+        <v>60</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
-    </row>
-    <row r="21" spans="1:7" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+    </row>
+    <row r="22" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+    </row>
+    <row r="23" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G21" s="4">
-        <f>SUMIF(G2:G20,"1",I2:I20)</f>
+      <c r="G23" s="4">
+        <f>SUMIF(G2:G22,"1",I2:I22)</f>
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
+    <row r="24" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G22" s="4">
-        <f>SUMIF(G3:G20,"2",I3:I20)</f>
-        <v>441</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
+      <c r="G24" s="4">
+        <f>SUMIF(G3:G22,"2",I3:I22)</f>
+        <v>501</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G23" s="4">
-        <f>SUMIF(G3:G20,"3",I3:I20)</f>
+      <c r="G25" s="4">
+        <f>SUMIF(G3:G22,"3",I3:I22)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
+    <row r="26" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G24" s="4">
-        <f>SUMIF(G3:G20,"4",I3:I20)</f>
+      <c r="G26" s="4">
+        <f>SUMIF(G3:G22,"4",I3:I22)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G26" s="3">
+      <c r="G28" s="3">
         <f>G13/60</f>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="G27" s="3">
-        <f>G22/60</f>
-        <v>7.35</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G28" s="3">
-        <f>G23/60</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="G29" s="3">
         <f>G24/60</f>
+        <v>8.35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30" s="3">
+        <f>G25/60</f>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G31" s="3">
+        <f>G26/60</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B36" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D36" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E34" s="8">
+      <c r="E36" s="8">
         <v>0</v>
       </c>
-      <c r="G34" s="8" t="s">
+      <c r="G36" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="I34" s="8" t="s">
+      <c r="I36" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="K34" s="8" t="s">
+      <c r="K36" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
+    <row r="37" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
         <v>23</v>
       </c>
     </row>

--- a/Module4/TimesheetCS5010.xlsx
+++ b/Module4/TimesheetCS5010.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="59">
   <si>
     <t>Date</t>
   </si>
@@ -43,9 +43,6 @@
     <t>Doyle</t>
   </si>
   <si>
-    <t>Total Time On Task Q1 (minutes)</t>
-  </si>
-  <si>
     <t>Total Time On Task Q2 (minutes)</t>
   </si>
   <si>
@@ -88,12 +85,6 @@
     <t xml:space="preserve"> =========================committing to git: m/dd hh:ss =========================</t>
   </si>
   <si>
-    <t xml:space="preserve"> =========================committing to git: 2/3 17:14 =========================</t>
-  </si>
-  <si>
-    <t>Started bouncing balls</t>
-  </si>
-  <si>
     <t xml:space="preserve"> =========================committing to git: 2/5 11:54 =========================</t>
   </si>
   <si>
@@ -131,6 +122,75 @@
   </si>
   <si>
     <t xml:space="preserve"> =========================committing to git: 2/8 15:33 =========================</t>
+  </si>
+  <si>
+    <t>Data definitions for book, invenstory, etc</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> =========================committing to git: 2/9 5:50 =========================</t>
+  </si>
+  <si>
+    <t>Started working on provided functions</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> =========================committing to git: 2/9 7:30 =========================</t>
+  </si>
+  <si>
+    <t>More functions and tests</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> =========================committing to git: 2/9 9:12 =========================</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> =========================committing to git: 2/4 17:14 =========================</t>
+  </si>
+  <si>
+    <t>Added another function and test</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> =========================committing to git: 2/9 11:16 =========================</t>
+  </si>
+  <si>
+    <t>Trying to figure out move-off-canvas behavior</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> =========================committing to git: 2/9 12:19 =========================</t>
+  </si>
+  <si>
+    <t>Started balls in box</t>
+  </si>
+  <si>
+    <t>Tests and comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> =========================committing to git: 2/8 23:25 =========================</t>
+  </si>
+  <si>
+    <t>Another function and tests</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> =========================committing to git: 2/9 17:30 =========================</t>
+  </si>
+  <si>
+    <t>quick run of pre-qualification</t>
+  </si>
+  <si>
+    <t>tests for price-order, coded "fillable" functions and tests</t>
+  </si>
+  <si>
+    <t>Finished up provided functions</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> =========================committing to git: 2/9 20:21 =========================</t>
+  </si>
+  <si>
+    <t>Nearly done with test coverage, ran pre-qualification tests</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> =========================committing to git: 2/9 21:42 =========================</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> =========================committing to git: 2/9 21:55 =========================</t>
   </si>
 </sst>
 </file>
@@ -980,10 +1040,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K37"/>
+  <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1070,12 +1130,12 @@
       </c>
       <c r="J4" s="7"/>
       <c r="K4" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -1114,12 +1174,12 @@
       </c>
       <c r="J6" s="7"/>
       <c r="K6" s="7" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
@@ -1155,12 +1215,12 @@
         <v>60</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -1187,12 +1247,12 @@
         <v>74</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -1219,12 +1279,12 @@
         <v>60</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -1251,12 +1311,12 @@
         <v>72</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -1283,12 +1343,12 @@
         <v>70</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -1314,126 +1374,489 @@
         <v>60</v>
       </c>
       <c r="K18" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>41678</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.84375</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="E20" s="8">
+        <v>3</v>
+      </c>
+      <c r="G20" s="8">
+        <v>2</v>
+      </c>
+      <c r="I20" s="8">
+        <v>120</v>
+      </c>
+      <c r="K20" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>41679</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.20555555555555557</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.24236111111111111</v>
+      </c>
+      <c r="E22" s="8">
+        <v>0</v>
+      </c>
+      <c r="G22" s="8">
+        <v>1</v>
+      </c>
+      <c r="I22" s="8">
+        <f>4+49</f>
+        <v>53</v>
+      </c>
+      <c r="K22" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>41679</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.3125</v>
+      </c>
+      <c r="E24" s="8">
+        <v>0</v>
+      </c>
+      <c r="G24" s="8">
+        <v>1</v>
+      </c>
+      <c r="I24" s="8">
+        <f>90</f>
+        <v>90</v>
+      </c>
+      <c r="K24" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-    </row>
-    <row r="22" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-    </row>
-    <row r="23" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G23" s="4">
-        <f>SUMIF(G2:G22,"1",I2:I22)</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G24" s="4">
-        <f>SUMIF(G3:G22,"2",I3:I22)</f>
-        <v>501</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" s="4">
-        <f>SUMIF(G3:G22,"3",I3:I22)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G26" s="4">
-        <f>SUMIF(G3:G22,"4",I3:I22)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G28" s="3">
-        <f>G13/60</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>41679</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0.3125</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0.38263888888888892</v>
+      </c>
+      <c r="E26" s="8">
+        <v>1</v>
+      </c>
+      <c r="G26" s="8">
+        <v>1</v>
+      </c>
+      <c r="I26" s="8">
+        <v>90</v>
+      </c>
+      <c r="K26" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>41679</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0.46875</v>
+      </c>
+      <c r="E28" s="8">
+        <v>0</v>
+      </c>
+      <c r="G28" s="8">
+        <v>1</v>
+      </c>
+      <c r="I28" s="8">
+        <v>45</v>
+      </c>
+      <c r="K28" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G29" s="3">
-        <f>G24/60</f>
-        <v>8.35</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G30" s="3">
-        <f>G25/60</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>41679</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0.5131944444444444</v>
+      </c>
+      <c r="E30" s="8">
+        <v>0</v>
+      </c>
+      <c r="G30" s="8">
+        <v>2</v>
+      </c>
+      <c r="I30" s="8">
+        <v>19</v>
+      </c>
+      <c r="K30" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G31" s="3">
-        <f>G26/60</f>
-        <v>0</v>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>41679</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0.7284722222222223</v>
+      </c>
+      <c r="E32" s="8">
+        <v>0</v>
+      </c>
+      <c r="G32" s="8">
+        <v>1</v>
+      </c>
+      <c r="I32" s="8">
+        <v>29</v>
+      </c>
+      <c r="K32" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>41679</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0.78125</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0.83263888888888893</v>
+      </c>
+      <c r="E34" s="8">
+        <v>0</v>
+      </c>
+      <c r="G34" s="8">
+        <v>1</v>
+      </c>
+      <c r="I34" s="8">
+        <f>15+59</f>
+        <v>74</v>
+      </c>
+      <c r="K34" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>41679</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0.83472222222222225</v>
+      </c>
+      <c r="E35" s="8">
+        <v>0</v>
+      </c>
+      <c r="G35" s="8">
+        <v>2</v>
+      </c>
+      <c r="I35" s="8">
+        <v>2</v>
+      </c>
+      <c r="K35" s="8" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="36" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>19</v>
+      <c r="A36" s="2">
+        <v>41679</v>
       </c>
       <c r="B36" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>20</v>
+      <c r="C36" s="1">
+        <v>0.83472222222222225</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0.84722222222222221</v>
       </c>
       <c r="E36" s="8">
         <v>0</v>
       </c>
-      <c r="G36" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="I36" s="8" t="s">
-        <v>22</v>
+      <c r="G36" s="8">
+        <v>1</v>
+      </c>
+      <c r="I36" s="8">
+        <f>18</f>
+        <v>18</v>
       </c>
       <c r="K36" s="8" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>23</v>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>41679</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0.85069444444444453</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0.90277777777777779</v>
+      </c>
+      <c r="E38" s="8">
+        <v>0</v>
+      </c>
+      <c r="G38" s="8">
+        <v>1</v>
+      </c>
+      <c r="I38" s="8">
+        <f>60+35</f>
+        <v>95</v>
+      </c>
+      <c r="K38" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>41679</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="1">
+        <v>0.90625</v>
+      </c>
+      <c r="D40" s="1">
+        <v>0.91319444444444453</v>
+      </c>
+      <c r="E40" s="8">
+        <v>0</v>
+      </c>
+      <c r="G40" s="8">
+        <v>1</v>
+      </c>
+      <c r="I40" s="8">
+        <f>10</f>
+        <v>10</v>
+      </c>
+      <c r="K40" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="2"/>
+    </row>
+    <row r="43" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="2"/>
+    </row>
+    <row r="44" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G44" s="4">
+        <f>SUMIF(G2:G43,"1",I2:I43)</f>
+        <v>524</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G45" s="4">
+        <f>SUMIF(G3:G43,"2",I3:I43)</f>
+        <v>642</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G46" s="4">
+        <f>SUMIF(G3:G43,"3",I3:I43)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G47" s="4">
+        <f>SUMIF(G3:G43,"4",I3:I43)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G49" s="3">
+        <f>G44/60</f>
+        <v>8.7333333333333325</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G50" s="3">
+        <f>G45/60</f>
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G51" s="3">
+        <f>G46/60</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G52" s="3">
+        <f>G47/60</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E57" s="8">
+        <v>0</v>
+      </c>
+      <c r="G57" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I57" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K57" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Module4/TimesheetCS5010.xlsx
+++ b/Module4/TimesheetCS5010.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="64">
   <si>
     <t>Date</t>
   </si>
@@ -191,6 +191,21 @@
   </si>
   <si>
     <t xml:space="preserve"> =========================committing to git: 2/9 21:55 =========================</t>
+  </si>
+  <si>
+    <t>Figured out a bug with inventory-after-order, some cleanup</t>
+  </si>
+  <si>
+    <t>Quick "longest line" and indent cleanup</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> =========================committing to git: 2/10 8:41 =========================</t>
+  </si>
+  <si>
+    <t>Figured out fix to bound by canvas for balls</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> =========================committing to git: 2/10 9:20 =========================</t>
   </si>
 </sst>
 </file>
@@ -1040,10 +1055,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K58"/>
+  <dimension ref="A1:K63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1751,111 +1766,200 @@
       </c>
     </row>
     <row r="42" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="2"/>
+      <c r="A42" s="2">
+        <v>41680</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D42" s="1">
+        <v>0.35902777777777778</v>
+      </c>
+      <c r="E42" s="8">
+        <v>0</v>
+      </c>
+      <c r="G42" s="8">
+        <v>1</v>
+      </c>
+      <c r="I42" s="8">
+        <v>37</v>
+      </c>
+      <c r="K42" s="8" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="43" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="2"/>
-    </row>
-    <row r="44" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A43" s="2">
+        <v>41680</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="1">
+        <v>0.35902777777777778</v>
+      </c>
+      <c r="D43" s="1">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="E43" s="8">
+        <v>0</v>
+      </c>
+      <c r="G43" s="8">
+        <v>2</v>
+      </c>
+      <c r="I43" s="8">
+        <v>3</v>
+      </c>
+      <c r="K43" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>41680</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" s="1">
+        <v>0.36249999999999999</v>
+      </c>
+      <c r="D45" s="1">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="E45" s="8">
+        <v>0</v>
+      </c>
+      <c r="G45" s="8">
+        <v>1</v>
+      </c>
+      <c r="I45" s="8">
+        <f>18+20</f>
+        <v>38</v>
+      </c>
+      <c r="K45" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="2"/>
+    </row>
+    <row r="48" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="2"/>
+    </row>
+    <row r="49" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G44" s="4">
-        <f>SUMIF(G2:G43,"1",I2:I43)</f>
-        <v>524</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A45" s="2" t="s">
+      <c r="G49" s="4">
+        <f>SUMIF(G2:G48,"1",I2:I48)</f>
+        <v>599</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G45" s="4">
-        <f>SUMIF(G3:G43,"2",I3:I43)</f>
-        <v>642</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A46" s="2" t="s">
+      <c r="G50" s="4">
+        <f>SUMIF(G3:G48,"2",I3:I48)</f>
+        <v>645</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G46" s="4">
-        <f>SUMIF(G3:G43,"3",I3:I43)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A47" s="2" t="s">
+      <c r="G51" s="4">
+        <f>SUMIF(G3:G48,"3",I3:I48)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G47" s="4">
-        <f>SUMIF(G3:G43,"4",I3:I43)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
+      <c r="G52" s="4">
+        <f>SUMIF(G3:G48,"4",I3:I48)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G49" s="3">
-        <f>G44/60</f>
-        <v>8.7333333333333325</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
+      <c r="G54" s="3">
+        <f>G49/60</f>
+        <v>9.9833333333333325</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G50" s="3">
-        <f>G45/60</f>
-        <v>10.7</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
+      <c r="G55" s="3">
+        <f>G50/60</f>
+        <v>10.75</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G51" s="3">
-        <f>G46/60</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
+      <c r="G56" s="3">
+        <f>G51/60</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G52" s="3">
-        <f>G47/60</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
+      <c r="G57" s="3">
+        <f>G52/60</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B57" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C57" s="1" t="s">
+      <c r="B62" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="D62" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E57" s="8">
-        <v>0</v>
-      </c>
-      <c r="G57" s="8" t="s">
+      <c r="E62" s="8">
+        <v>0</v>
+      </c>
+      <c r="G62" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="I57" s="8" t="s">
+      <c r="I62" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="K57" s="8" t="s">
+      <c r="K62" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="58" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
+    <row r="63" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
         <v>22</v>
       </c>
     </row>

--- a/Module4/TimesheetCS5010.xlsx
+++ b/Module4/TimesheetCS5010.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="67">
   <si>
     <t>Date</t>
   </si>
@@ -206,6 +206,15 @@
   </si>
   <si>
     <t xml:space="preserve"> =========================committing to git: 2/10 9:20 =========================</t>
+  </si>
+  <si>
+    <t>Comment cleanup</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> =========================committing to git: 2/10 17:53 =========================</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> =========================committing to git: 2/11 9:07  =========================</t>
   </si>
 </sst>
 </file>
@@ -1055,10 +1064,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K63"/>
+  <dimension ref="A1:K68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="L35" sqref="L35"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50:XFD60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1855,111 +1864,200 @@
       </c>
     </row>
     <row r="47" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="2"/>
+      <c r="A47" s="2">
+        <v>41680</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D47" s="1">
+        <v>0.71597222222222223</v>
+      </c>
+      <c r="E47" s="8">
+        <v>0</v>
+      </c>
+      <c r="G47" s="8">
+        <v>2</v>
+      </c>
+      <c r="I47" s="8">
+        <v>11</v>
+      </c>
+      <c r="K47" s="8" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="48" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="2"/>
-    </row>
-    <row r="49" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A48" s="2">
+        <v>41680</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" s="1">
+        <v>0.71597222222222223</v>
+      </c>
+      <c r="D48" s="1">
+        <v>0.74513888888888891</v>
+      </c>
+      <c r="E48" s="8">
+        <v>1</v>
+      </c>
+      <c r="G48" s="8">
+        <v>1</v>
+      </c>
+      <c r="I48" s="8">
+        <f>40</f>
+        <v>40</v>
+      </c>
+      <c r="K48" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>41681</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" s="1">
+        <v>0.35069444444444442</v>
+      </c>
+      <c r="D50" s="1">
+        <v>0.37986111111111115</v>
+      </c>
+      <c r="E50" s="8">
+        <v>0</v>
+      </c>
+      <c r="G50" s="8">
+        <v>1</v>
+      </c>
+      <c r="I50" s="8">
+        <v>42</v>
+      </c>
+      <c r="K50" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="2"/>
+    </row>
+    <row r="53" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="2"/>
+    </row>
+    <row r="54" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G49" s="4">
-        <f>SUMIF(G2:G48,"1",I2:I48)</f>
-        <v>599</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A50" s="2" t="s">
+      <c r="G54" s="4">
+        <f>SUMIF(G2:G53,"1",I2:I53)</f>
+        <v>681</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G50" s="4">
-        <f>SUMIF(G3:G48,"2",I3:I48)</f>
-        <v>645</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A51" s="2" t="s">
+      <c r="G55" s="4">
+        <f>SUMIF(G3:G53,"2",I3:I53)</f>
+        <v>656</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G51" s="4">
-        <f>SUMIF(G3:G48,"3",I3:I48)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A52" s="2" t="s">
+      <c r="G56" s="4">
+        <f>SUMIF(G3:G53,"3",I3:I53)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G52" s="4">
-        <f>SUMIF(G3:G48,"4",I3:I48)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
+      <c r="G57" s="4">
+        <f>SUMIF(G3:G53,"4",I3:I53)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G54" s="3">
-        <f>G49/60</f>
-        <v>9.9833333333333325</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
+      <c r="G59" s="3">
+        <f>G54/60</f>
+        <v>11.35</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G55" s="3">
-        <f>G50/60</f>
-        <v>10.75</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
+      <c r="G60" s="3">
+        <f>G55/60</f>
+        <v>10.933333333333334</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G56" s="3">
-        <f>G51/60</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
+      <c r="G61" s="3">
+        <f>G56/60</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G57" s="3">
-        <f>G52/60</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
+      <c r="G62" s="3">
+        <f>G57/60</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B62" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C62" s="1" t="s">
+      <c r="B67" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="D67" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E62" s="8">
-        <v>0</v>
-      </c>
-      <c r="G62" s="8" t="s">
+      <c r="E67" s="8">
+        <v>0</v>
+      </c>
+      <c r="G67" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="I62" s="8" t="s">
+      <c r="I67" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="K62" s="8" t="s">
+      <c r="K67" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="63" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
+    <row r="68" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
         <v>22</v>
       </c>
     </row>
